--- a/docs/accounting/v9-v10/04_sell_invoice_cash_IQD.xlsx
+++ b/docs/accounting/v9-v10/04_sell_invoice_cash_IQD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diako/project/omega/docs/accounting/v9-v10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859197DF-915A-B445-A5CF-5B1D2DD1F0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76472BC6-D638-174B-8BD5-7C971B7F1C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8729,7 +8729,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>

--- a/docs/accounting/v9-v10/04_sell_invoice_cash_IQD.xlsx
+++ b/docs/accounting/v9-v10/04_sell_invoice_cash_IQD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diako/project/omega/docs/accounting/v9-v10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76472BC6-D638-174B-8BD5-7C971B7F1C58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A5220-45B9-2D45-BA30-57358B4C8A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="495">
   <si>
     <t xml:space="preserve">Initiate </t>
   </si>
@@ -1613,6 +1613,12 @@
   <si>
     <t>150 from_beginning</t>
   </si>
+  <si>
+    <t>v9-v10</t>
+  </si>
+  <si>
+    <t>04_sell_invoice_cash_IQD</t>
+  </si>
 </sst>
 </file>
 
@@ -1628,7 +1634,7 @@
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1712,12 +1718,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFC00000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
@@ -1784,18 +1784,50 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="8"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="8"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="DejaVu Sans"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2143,10 +2175,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2184,7 +2216,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2213,7 +2245,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2222,11 +2254,9 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2260,10 +2290,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2272,28 +2302,22 @@
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2340,6 +2364,102 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2352,110 +2472,129 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3718,13 +3857,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="73">
+      <c r="A24" s="69">
         <v>22</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="6">
         <v>43832</v>
       </c>
@@ -3739,13 +3878,13 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="73">
+      <c r="A25" s="69">
         <v>23</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="69"/>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
@@ -3754,13 +3893,13 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="73">
+      <c r="A26" s="69">
         <v>24</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="69" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -3771,967 +3910,967 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="73">
+      <c r="A27" s="69">
         <v>25</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="69" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="74">
+      <c r="A28" s="70">
         <v>26</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="72" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="77">
+      <c r="A29" s="73">
         <v>27</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="79">
+      <c r="A30" s="75">
         <v>28</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="80">
+      <c r="A31" s="76">
         <v>29</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="78">
+      <c r="A32" s="74">
         <v>30</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="78">
+      <c r="A33" s="74">
         <v>31</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="78">
+      <c r="A34" s="74">
         <v>32</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="78">
+      <c r="A35" s="74">
         <v>33</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="78">
+      <c r="A36" s="74">
         <v>34</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="78">
+      <c r="A37" s="74">
         <v>35</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="78">
+      <c r="A38" s="74">
         <v>36</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="78">
+      <c r="A39" s="74">
         <v>37</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="78">
+      <c r="A40" s="74">
         <v>38</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="78">
+      <c r="A41" s="74">
         <v>39</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="78">
+      <c r="A42" s="74">
         <v>40</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="78">
+      <c r="A43" s="74">
         <v>41</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="78">
+      <c r="A44" s="74">
         <v>42</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="78">
+      <c r="A45" s="74">
         <v>43</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="78">
+      <c r="A46" s="74">
         <v>44</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="78">
+      <c r="A47" s="74">
         <v>45</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="78">
+      <c r="A48" s="74">
         <v>46</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="78">
+      <c r="A49" s="74">
         <v>47</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="78">
+      <c r="A50" s="74">
         <v>48</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="78">
+      <c r="A51" s="74">
         <v>49</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="78">
+      <c r="A52" s="74">
         <v>50</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="C52" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="78">
+      <c r="A53" s="74">
         <v>51</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="78">
+      <c r="A54" s="74">
         <v>52</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="78">
+      <c r="A55" s="74">
         <v>53</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="78">
+      <c r="A56" s="74">
         <v>54</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="78">
+      <c r="A57" s="74">
         <v>55</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="78">
+      <c r="A58" s="74">
         <v>56</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="78">
+      <c r="A59" s="74">
         <v>57</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="78">
+      <c r="A60" s="74">
         <v>58</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="78">
+      <c r="A61" s="74">
         <v>59</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="78">
+      <c r="A62" s="74">
         <v>60</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="78">
+      <c r="A63" s="74">
         <v>61</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="78">
+      <c r="A64" s="74">
         <v>62</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="78">
+      <c r="A65" s="74">
         <v>63</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="78">
+      <c r="A66" s="74">
         <v>64</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="78">
+      <c r="A67" s="74">
         <v>65</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="78">
+      <c r="A68" s="74">
         <v>66</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="78">
+      <c r="A69" s="74">
         <v>67</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="78">
+      <c r="A70" s="74">
         <v>68</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="78">
+      <c r="A71" s="74">
         <v>69</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="78">
+      <c r="A72" s="74">
         <v>70</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="78">
+      <c r="A73" s="74">
         <v>71</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="78">
+      <c r="A74" s="74">
         <v>72</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="78">
+      <c r="A75" s="74">
         <v>73</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C75" s="74" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="78">
+      <c r="A76" s="74">
         <v>74</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="74" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="22">
-      <c r="A77" s="78">
+      <c r="A77" s="74">
         <v>75</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="78"/>
+      <c r="C77" s="74"/>
       <c r="D77" s="6">
         <v>43833</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="78">
+      <c r="A78" s="74">
         <v>76</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C78" s="74" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="78">
+      <c r="A79" s="74">
         <v>77</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C79" s="74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="22">
-      <c r="A80" s="78">
+      <c r="A80" s="74">
         <v>78</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="74" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="78">
+      <c r="A81" s="74">
         <v>79</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="74" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="78" t="s">
+      <c r="A82" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="74" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="78">
+      <c r="A83" s="74">
         <v>80</v>
       </c>
-      <c r="B83" s="72" t="s">
+      <c r="B83" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="78">
+      <c r="A84" s="74">
         <v>81</v>
       </c>
-      <c r="B84" s="72" t="s">
+      <c r="B84" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="74" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1">
-      <c r="A85" s="78">
+      <c r="A85" s="74">
         <v>82</v>
       </c>
-      <c r="B85" s="72" t="s">
+      <c r="B85" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C85" s="74" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="74" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="78">
+      <c r="A87" s="74">
         <v>83</v>
       </c>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="78">
+      <c r="A88" s="74">
         <v>84</v>
       </c>
-      <c r="B88" s="72" t="s">
+      <c r="B88" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="74" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="72" t="s">
+      <c r="B89" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="74" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16" customHeight="1">
-      <c r="A90" s="78">
+      <c r="A90" s="74">
         <v>85</v>
       </c>
-      <c r="B90" s="72" t="s">
+      <c r="B90" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="74" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="22">
-      <c r="A91" s="78">
+      <c r="A91" s="74">
         <v>86</v>
       </c>
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="78"/>
+      <c r="C91" s="74"/>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="78">
+      <c r="A92" s="74">
         <v>87</v>
       </c>
-      <c r="B92" s="72" t="s">
+      <c r="B92" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="78">
+      <c r="A93" s="74">
         <v>88</v>
       </c>
-      <c r="B93" s="72" t="s">
+      <c r="B93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="C93" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="78">
+      <c r="A94" s="74">
         <v>89</v>
       </c>
-      <c r="B94" s="72" t="s">
+      <c r="B94" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="C94" s="78" t="s">
+      <c r="C94" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="78">
+      <c r="A95" s="74">
         <v>90</v>
       </c>
-      <c r="B95" s="72" t="s">
+      <c r="B95" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="74" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="78">
+      <c r="A96" s="74">
         <v>91</v>
       </c>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C96" s="78"/>
+      <c r="C96" s="74"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="78">
+      <c r="A97" s="74">
         <v>92</v>
       </c>
-      <c r="B97" s="72" t="s">
+      <c r="B97" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C97" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="78">
+      <c r="A98" s="74">
         <v>93</v>
       </c>
-      <c r="B98" s="72" t="s">
+      <c r="B98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C98" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="78">
+      <c r="A99" s="74">
         <v>94</v>
       </c>
-      <c r="B99" s="72" t="s">
+      <c r="B99" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="78" t="s">
+      <c r="C99" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="78">
+      <c r="A100" s="74">
         <v>95</v>
       </c>
-      <c r="B100" s="81" t="s">
+      <c r="B100" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C100" s="82" t="s">
+      <c r="C100" s="78" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="42">
-      <c r="A101" s="78">
+      <c r="A101" s="74">
         <v>96</v>
       </c>
-      <c r="B101" s="83" t="s">
+      <c r="B101" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="78"/>
+      <c r="C101" s="74"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="77">
+      <c r="A102" s="73">
         <v>97</v>
       </c>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="79">
+      <c r="A103" s="75">
         <v>98</v>
       </c>
-      <c r="B103" s="72" t="s">
+      <c r="B103" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="80">
+      <c r="A104" s="76">
         <v>99</v>
       </c>
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="74" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="78">
+      <c r="A105" s="74">
         <v>100</v>
       </c>
-      <c r="B105" s="72" t="s">
+      <c r="B105" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C105" s="78"/>
+      <c r="C105" s="74"/>
       <c r="D105" s="6">
         <v>43834</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="78">
+      <c r="A106" s="74">
         <v>101</v>
       </c>
-      <c r="B106" s="72" t="s">
+      <c r="B106" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C106" s="74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="78">
+      <c r="A107" s="74">
         <v>102</v>
       </c>
-      <c r="B107" s="72" t="s">
+      <c r="B107" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="84" t="s">
+      <c r="C107" s="80" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="78">
+      <c r="A108" s="74">
         <v>103</v>
       </c>
-      <c r="B108" s="72" t="s">
+      <c r="B108" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C108" s="78" t="s">
+      <c r="C108" s="74" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="78">
+      <c r="A109" s="74">
         <v>104</v>
       </c>
-      <c r="B109" s="72" t="s">
+      <c r="B109" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="74" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="78" t="s">
+      <c r="A110" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="B110" s="72" t="s">
+      <c r="B110" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="74" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="78">
+      <c r="A111" s="74">
         <v>105</v>
       </c>
-      <c r="B111" s="72" t="s">
+      <c r="B111" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="74" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="78">
+      <c r="A112" s="74">
         <v>106</v>
       </c>
-      <c r="B112" s="72" t="s">
+      <c r="B112" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="74" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="78">
+      <c r="A113" s="74">
         <v>107</v>
       </c>
-      <c r="B113" s="72" t="s">
+      <c r="B113" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="C113" s="78"/>
+      <c r="C113" s="74"/>
       <c r="D113">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="78">
+      <c r="A114" s="74">
         <v>108</v>
       </c>
-      <c r="B114" s="72" t="s">
+      <c r="B114" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="C114" s="78" t="s">
+      <c r="C114" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D114">
@@ -4739,13 +4878,13 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="78">
+      <c r="A115" s="74">
         <v>109</v>
       </c>
-      <c r="B115" s="72" t="s">
+      <c r="B115" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C115" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D115">
@@ -4753,13 +4892,13 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="78">
+      <c r="A116" s="74">
         <v>110</v>
       </c>
-      <c r="B116" s="72" t="s">
+      <c r="B116" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="C116" s="78" t="s">
+      <c r="C116" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D116">
@@ -4767,13 +4906,13 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="78">
+      <c r="A117" s="74">
         <v>111</v>
       </c>
-      <c r="B117" s="72" t="s">
+      <c r="B117" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="C117" s="78" t="s">
+      <c r="C117" s="74" t="s">
         <v>135</v>
       </c>
       <c r="D117">
@@ -4781,13 +4920,13 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="78">
+      <c r="A118" s="74">
         <v>112</v>
       </c>
-      <c r="B118" s="72" t="s">
+      <c r="B118" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="C118" s="78" t="s">
+      <c r="C118" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D118">
@@ -4795,13 +4934,13 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="78">
+      <c r="A119" s="74">
         <v>113</v>
       </c>
-      <c r="B119" s="72" t="s">
+      <c r="B119" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="C119" s="78" t="s">
+      <c r="C119" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D119">
@@ -4809,13 +4948,13 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="78">
+      <c r="A120" s="74">
         <v>114</v>
       </c>
-      <c r="B120" s="72" t="s">
+      <c r="B120" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="C120" s="78" t="s">
+      <c r="C120" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D120">
@@ -4823,110 +4962,110 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="78">
+      <c r="A121" s="74">
         <v>115</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="C121" s="78" t="s">
+      <c r="C121" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="78">
+      <c r="A122" s="74">
         <v>116</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="68" t="s">
         <v>423</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="74" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="78">
+      <c r="A123" s="74">
         <v>117</v>
       </c>
-      <c r="B123" s="72" t="s">
+      <c r="B123" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="C123" s="78"/>
+      <c r="C123" s="74"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="78">
+      <c r="A124" s="74">
         <v>118</v>
       </c>
-      <c r="B124" s="72" t="s">
+      <c r="B124" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="C124" s="78" t="s">
+      <c r="C124" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="78">
+      <c r="A125" s="74">
         <v>119</v>
       </c>
-      <c r="B125" s="72" t="s">
+      <c r="B125" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="C125" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="78">
+      <c r="A126" s="74">
         <v>120</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="68" t="s">
         <v>437</v>
       </c>
-      <c r="C126" s="78" t="s">
+      <c r="C126" s="74" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="78">
+      <c r="A127" s="74">
         <v>121</v>
       </c>
-      <c r="B127" s="72" t="s">
+      <c r="B127" s="68" t="s">
         <v>438</v>
       </c>
-      <c r="C127" s="78" t="s">
+      <c r="C127" s="74" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="77">
+      <c r="A128" s="73">
         <v>122</v>
       </c>
-      <c r="B128" s="72" t="s">
+      <c r="B128" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="78" t="s">
+      <c r="C128" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="79">
+      <c r="A129" s="75">
         <v>123</v>
       </c>
-      <c r="B129" s="72" t="s">
+      <c r="B129" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C129" s="78" t="s">
+      <c r="C129" s="74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="80">
+      <c r="A130" s="76">
         <v>124</v>
       </c>
-      <c r="B130" s="72" t="s">
+      <c r="B130" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="78" t="s">
+      <c r="C130" s="74" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5186,35 +5325,35 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="68">
+      <c r="A155" s="66">
         <v>149</v>
       </c>
-      <c r="B155" s="69" t="s">
+      <c r="B155" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="68" t="s">
+      <c r="C155" s="66" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="68">
+      <c r="A156" s="66">
         <v>150</v>
       </c>
-      <c r="B156" s="69" t="s">
+      <c r="B156" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C156" s="68" t="s">
+      <c r="C156" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="68">
+      <c r="A157" s="66">
         <v>151</v>
       </c>
-      <c r="B157" s="69" t="s">
+      <c r="B157" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="68" t="s">
+      <c r="C157" s="66" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5254,10 +5393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" ht="11">
@@ -5288,71 +5427,71 @@
       <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>78</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="109">
         <v>1</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="118">
+      <c r="E3" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="109">
         <v>400</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>81</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="109">
         <v>2</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="118">
+      <c r="E4" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="109">
         <v>600</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>84</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="109">
         <v>3</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="109" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="118">
+      <c r="E5" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="109">
         <v>100</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="115" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5395,10 +5534,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:1024" s="20" customFormat="1">
@@ -5427,82 +5566,82 @@
       <c r="AMJ2"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="125">
+      <c r="B3" s="116">
         <v>1</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="116" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="116">
         <v>100</v>
       </c>
-      <c r="F3" s="127"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="38">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1024">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="109" t="s">
         <v>479</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="109" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="118">
+      <c r="E4" s="109">
         <v>50</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="125">
+      <c r="B5" s="116">
         <v>3</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="116" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="125" t="s">
+      <c r="D5" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="116">
         <v>50</v>
       </c>
-      <c r="F5" s="125"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="38">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>1</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="109" t="s">
         <v>480</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="109" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="109">
         <v>100</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="114">
         <v>3</v>
       </c>
     </row>
@@ -5522,7 +5661,7 @@
       <c r="E7" s="17">
         <v>50</v>
       </c>
-      <c r="F7" s="142">
+      <c r="F7" s="129">
         <v>10</v>
       </c>
     </row>
@@ -5565,10 +5704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="11">
@@ -5602,210 +5741,210 @@
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>79</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="109">
         <v>1</v>
       </c>
-      <c r="E3" s="118">
+      <c r="E3" s="109">
         <v>-100</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="109">
         <v>-100</v>
       </c>
-      <c r="G3" s="120">
+      <c r="G3" s="111">
         <v>43833</v>
       </c>
-      <c r="H3" s="118">
+      <c r="H3" s="109">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>79</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="109">
         <v>1</v>
       </c>
-      <c r="E4" s="118">
+      <c r="E4" s="109">
         <v>100</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="109">
         <v>100</v>
       </c>
-      <c r="G4" s="120">
+      <c r="G4" s="111">
         <v>43833</v>
       </c>
-      <c r="H4" s="118">
+      <c r="H4" s="109">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>82</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="109">
         <v>2</v>
       </c>
-      <c r="E5" s="118">
+      <c r="E5" s="109">
         <v>-50</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="109">
         <v>-50</v>
       </c>
-      <c r="G5" s="120">
+      <c r="G5" s="111">
         <v>43833</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="109">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="121">
+      <c r="A6" s="112">
         <v>82</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6" s="109">
         <v>2</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="109">
         <v>50</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="109">
         <v>50</v>
       </c>
-      <c r="G6" s="120">
+      <c r="G6" s="111">
         <v>43833</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="109">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="121">
+      <c r="A7" s="112">
         <v>85</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="109">
         <v>5</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="109">
         <v>3</v>
       </c>
-      <c r="E7" s="118">
+      <c r="E7" s="109">
         <v>-50</v>
       </c>
-      <c r="F7" s="118">
+      <c r="F7" s="109">
         <v>-50</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="111">
         <v>43833</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="109">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="121">
+      <c r="A8" s="112">
         <v>85</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="109">
         <v>6</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="109">
         <v>3</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8" s="109">
         <v>50</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="109">
         <v>50</v>
       </c>
-      <c r="G8" s="120">
+      <c r="G8" s="111">
         <v>43833</v>
       </c>
-      <c r="H8" s="118">
+      <c r="H8" s="109">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="112" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="109">
         <v>7</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="109" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="109">
         <v>1</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="109">
         <v>-3</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="109">
         <v>97</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="122">
         <v>43834</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="123">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="112" t="s">
         <v>446</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="109">
         <v>8</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="109" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="109">
         <v>1</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10" s="109">
         <v>3</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="109">
         <v>3</v>
       </c>
-      <c r="G10" s="140">
+      <c r="G10" s="127">
         <v>43834</v>
       </c>
-      <c r="H10" s="132">
+      <c r="H10" s="123">
         <v>4</v>
       </c>
     </row>
@@ -5828,7 +5967,7 @@
       <c r="F11" s="17">
         <v>40</v>
       </c>
-      <c r="G11" s="141">
+      <c r="G11" s="128">
         <v>43835</v>
       </c>
       <c r="H11" s="41">
@@ -5854,7 +5993,7 @@
       <c r="F12" s="17">
         <v>10</v>
       </c>
-      <c r="G12" s="141">
+      <c r="G12" s="128">
         <v>43835</v>
       </c>
       <c r="H12" s="41">
@@ -5878,8 +6017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMI11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:K11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -5901,10 +6040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="11">
@@ -5946,301 +6085,304 @@
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>24</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="109">
         <v>1</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="109" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="109" t="s">
         <v>338</v>
       </c>
-      <c r="G3" s="118" t="b">
+      <c r="G3" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="120">
+      <c r="I3" s="111">
         <v>43832</v>
       </c>
-      <c r="J3" s="120">
+      <c r="J3" s="111">
         <v>43832</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>87</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="109">
         <v>1</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="109" t="s">
         <v>424</v>
       </c>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118" t="b">
+      <c r="F4" s="109"/>
+      <c r="G4" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="111">
         <v>43833</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="111">
         <v>43833</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>92</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="109">
         <v>1</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="109" t="s">
         <v>435</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118" t="b">
+      <c r="F5" s="109"/>
+      <c r="G5" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="111">
         <v>43833</v>
       </c>
-      <c r="J5" s="120">
+      <c r="J5" s="111">
         <v>43833</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="121">
+      <c r="A6" s="112">
         <v>108</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6" s="109">
         <v>1</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="109" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118" t="b">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="111">
         <v>43834</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="111">
         <v>43834</v>
       </c>
-      <c r="K6" s="124" t="s">
+      <c r="K6" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="121">
+      <c r="A7" s="112">
         <v>112</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="109">
         <v>5</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="109">
         <v>1</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="109" t="s">
         <v>425</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118" t="b">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="118" t="s">
+      <c r="H7" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="111">
         <v>43834</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="111">
         <v>43834</v>
       </c>
-      <c r="K7" s="124" t="s">
+      <c r="K7" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="121">
+      <c r="A8" s="112">
         <v>118</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="109">
         <v>6</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="109">
         <v>1</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="109" t="s">
         <v>436</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118" t="b">
+      <c r="F8" s="109"/>
+      <c r="G8" s="109" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="H8" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="111">
         <v>43834</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="111">
         <v>43834</v>
       </c>
-      <c r="K8" s="124" t="s">
+      <c r="K8" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="35">
+      <c r="A9" s="206">
         <v>136</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="207">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="207" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="207">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="G9" s="17" t="b">
+      <c r="F9" s="207"/>
+      <c r="G9" s="207" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="208">
         <v>43836</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="208">
         <v>43836</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="209" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35">
+      <c r="A10" s="206">
         <v>140</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="207">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="207" t="s">
         <v>460</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="207">
         <v>1220</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="207" t="s">
         <v>425</v>
       </c>
-      <c r="G10" s="17" t="b">
+      <c r="F10" s="207"/>
+      <c r="G10" s="207" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="208">
         <v>43836</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="208">
         <v>43836</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="209" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="35">
+      <c r="A11" s="206">
         <v>145</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="207">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="207" t="s">
         <v>460</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="207">
         <v>1220</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="207" t="s">
         <v>436</v>
       </c>
-      <c r="G11" s="17" t="b">
+      <c r="F11" s="207"/>
+      <c r="G11" s="207" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="208">
         <v>43836</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="208">
         <v>43836</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="209" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6249,7 +6391,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6265,927 +6407,936 @@
   <sheetPr>
     <tabColor rgb="FFFAA61A"/>
   </sheetPr>
-  <dimension ref="A1:AMI21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="17"/>
-    <col min="4" max="4" width="13.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12" style="38" customWidth="1"/>
-    <col min="7" max="7" width="14" style="38" customWidth="1"/>
-    <col min="8" max="8" width="7" style="38" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" style="38" customWidth="1"/>
-    <col min="10" max="10" width="7" style="38" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="9" style="36" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="36" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="36" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="38"/>
-    <col min="16" max="17" width="11.5" style="36"/>
-    <col min="18" max="1023" width="11.5" style="17"/>
-    <col min="1024" max="1025" width="11.5"/>
+    <col min="1" max="1" width="6.6640625" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="171" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="171" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="171" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="173" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="173" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="173"/>
+    <col min="8" max="9" width="7.5" style="173" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="173" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="171" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.83203125" style="174" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="174" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="173"/>
+    <col min="16" max="17" width="18.6640625" style="174"/>
+    <col min="18" max="16384" width="18.6640625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:17" ht="24" customHeight="1">
+      <c r="A1" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="11">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="171" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="205" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+    </row>
+    <row r="2" spans="1:17" s="176" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="175" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="176" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="176" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="172" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="172" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="172" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="172" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="172" t="s">
         <v>344</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="172" t="s">
         <v>345</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="176" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="121">
+      <c r="O2" s="172"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+    </row>
+    <row r="3" spans="1:17" ht="24" customHeight="1">
+      <c r="A3" s="178">
         <v>25</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="179">
         <v>1</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="179">
         <v>1</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="179" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="180">
         <v>0</v>
       </c>
-      <c r="F3" s="123">
+      <c r="F3" s="180">
         <v>10000</v>
       </c>
-      <c r="G3" s="123">
+      <c r="G3" s="180">
         <v>-10000</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="180">
         <v>0</v>
       </c>
-      <c r="I3" s="123">
+      <c r="I3" s="180">
         <v>10000</v>
       </c>
-      <c r="J3" s="145">
+      <c r="J3" s="181">
         <v>-10000</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="120">
+      <c r="L3" s="182">
         <v>43832</v>
       </c>
-      <c r="M3" s="120">
+      <c r="M3" s="182">
         <v>43832</v>
       </c>
-      <c r="N3" s="124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="121">
+      <c r="N3" s="183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1">
+      <c r="A4" s="178">
         <v>26</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="184">
         <v>2</v>
       </c>
-      <c r="C4" s="133">
+      <c r="C4" s="184">
         <v>1</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="184" t="s">
         <v>347</v>
       </c>
-      <c r="E4" s="134">
+      <c r="E4" s="185">
         <v>10000</v>
       </c>
-      <c r="F4" s="134">
+      <c r="F4" s="185">
         <v>0</v>
       </c>
-      <c r="G4" s="134">
+      <c r="G4" s="185">
         <v>10000</v>
       </c>
-      <c r="H4" s="134">
+      <c r="H4" s="185">
         <v>10000</v>
       </c>
-      <c r="I4" s="134">
+      <c r="I4" s="185">
         <v>0</v>
       </c>
-      <c r="J4" s="146">
+      <c r="J4" s="186">
         <v>10000</v>
       </c>
-      <c r="K4" s="133" t="s">
+      <c r="K4" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="135">
+      <c r="L4" s="187">
         <v>43832</v>
       </c>
-      <c r="M4" s="135">
+      <c r="M4" s="187">
         <v>43832</v>
       </c>
-      <c r="N4" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="121">
+      <c r="N4" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1">
+      <c r="A5" s="178">
         <v>88</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="184">
         <v>3</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="184">
         <v>2</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="184" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="134">
+      <c r="E5" s="185">
         <v>0</v>
       </c>
-      <c r="F5" s="134">
+      <c r="F5" s="185">
         <v>75000</v>
       </c>
-      <c r="G5" s="134">
+      <c r="G5" s="185">
         <v>-75000</v>
       </c>
-      <c r="H5" s="134">
+      <c r="H5" s="185">
         <v>0</v>
       </c>
-      <c r="I5" s="134">
+      <c r="I5" s="185">
         <v>75000</v>
       </c>
-      <c r="J5" s="146">
+      <c r="J5" s="186">
         <v>-75000</v>
       </c>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="135">
+      <c r="L5" s="187">
         <v>43833</v>
       </c>
-      <c r="M5" s="135">
+      <c r="M5" s="187">
         <v>43833</v>
       </c>
-      <c r="N5" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="121">
+      <c r="N5" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24" customHeight="1">
+      <c r="A6" s="178">
         <v>89</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="184">
         <v>4</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="184">
         <v>2</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="184" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="134">
+      <c r="E6" s="185">
         <v>75000</v>
       </c>
-      <c r="F6" s="134">
+      <c r="F6" s="185">
         <v>0</v>
       </c>
-      <c r="G6" s="134">
+      <c r="G6" s="185">
         <v>75000</v>
       </c>
-      <c r="H6" s="134">
+      <c r="H6" s="185">
         <v>75000</v>
       </c>
-      <c r="I6" s="134">
+      <c r="I6" s="185">
         <v>0</v>
       </c>
-      <c r="J6" s="146">
+      <c r="J6" s="186">
         <v>75000</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="135">
+      <c r="L6" s="187">
         <v>43833</v>
       </c>
-      <c r="M6" s="135">
+      <c r="M6" s="187">
         <v>43833</v>
       </c>
-      <c r="N6" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="121">
+      <c r="N6" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="24" customHeight="1">
+      <c r="A7" s="178">
         <v>93</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="184">
         <v>5</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="184">
         <v>3</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="184" t="s">
         <v>347</v>
       </c>
-      <c r="E7" s="134">
+      <c r="E7" s="185">
         <v>0</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="185">
         <v>5000</v>
       </c>
-      <c r="G7" s="134">
+      <c r="G7" s="185">
         <v>5000</v>
       </c>
-      <c r="H7" s="134">
+      <c r="H7" s="185">
         <v>0</v>
       </c>
-      <c r="I7" s="134">
+      <c r="I7" s="185">
         <v>5000</v>
       </c>
-      <c r="J7" s="146">
+      <c r="J7" s="186">
         <v>5000</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="135">
+      <c r="L7" s="187">
         <v>43833</v>
       </c>
-      <c r="M7" s="135">
+      <c r="M7" s="187">
         <v>43833</v>
       </c>
-      <c r="N7" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="121">
+      <c r="N7" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="24" customHeight="1">
+      <c r="A8" s="178">
         <v>94</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="179">
         <v>6</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="179">
         <v>3</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="180">
         <v>5000</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="180">
         <v>0</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="180">
         <v>70000</v>
       </c>
-      <c r="H8" s="123">
+      <c r="H8" s="180">
         <v>5000</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="180">
         <v>0</v>
       </c>
-      <c r="J8" s="145">
+      <c r="J8" s="181">
         <v>70000</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="182">
         <v>43833</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M8" s="182">
         <v>43833</v>
       </c>
-      <c r="N8" s="124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="121">
+      <c r="N8" s="183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="24" customHeight="1">
+      <c r="A9" s="178">
         <v>109</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="184">
         <v>7</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="184">
         <v>4</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="184" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="185">
         <v>0</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="185">
         <v>1200</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="185">
         <v>73800</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="185">
         <v>0</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="185">
         <v>1200</v>
       </c>
-      <c r="J9" s="146">
+      <c r="J9" s="186">
         <v>73800</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="135">
+      <c r="L9" s="187">
         <v>43834</v>
       </c>
-      <c r="M9" s="135">
+      <c r="M9" s="187">
         <v>43834</v>
       </c>
-      <c r="N9" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="121">
+      <c r="N9" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="24" customHeight="1">
+      <c r="A10" s="178">
         <v>110</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="184">
         <v>8</v>
       </c>
-      <c r="C10" s="133">
+      <c r="C10" s="184">
         <v>4</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="184" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="185">
         <v>1200</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="185">
         <v>0</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="185">
         <v>1200</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="185">
         <v>1200</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="185">
         <v>0</v>
       </c>
-      <c r="J10" s="146">
+      <c r="J10" s="186">
         <v>1200</v>
       </c>
-      <c r="K10" s="133" t="s">
+      <c r="K10" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L10" s="135">
+      <c r="L10" s="187">
         <v>43834</v>
       </c>
-      <c r="M10" s="135">
+      <c r="M10" s="187">
         <v>43834</v>
       </c>
-      <c r="N10" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="121">
+      <c r="N10" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="24" customHeight="1">
+      <c r="A11" s="178">
         <v>113</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="184">
         <v>9</v>
       </c>
-      <c r="C11" s="133">
+      <c r="C11" s="184">
         <v>5</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="184" t="s">
         <v>368</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="185">
         <v>0</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="185">
         <v>3000</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="185">
         <v>-3000</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="185">
         <v>0</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="185">
         <v>3000</v>
       </c>
-      <c r="J11" s="146">
+      <c r="J11" s="186">
         <v>-3000</v>
       </c>
-      <c r="K11" s="133" t="s">
+      <c r="K11" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L11" s="135">
+      <c r="L11" s="187">
         <v>43834</v>
       </c>
-      <c r="M11" s="135">
+      <c r="M11" s="187">
         <v>43834</v>
       </c>
-      <c r="N11" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="121">
+      <c r="N11" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24" customHeight="1">
+      <c r="A12" s="178">
         <v>114</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="179">
         <v>10</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="179">
         <v>5</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="179" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="180">
         <v>60</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="180">
         <v>0</v>
       </c>
-      <c r="G12" s="123">
+      <c r="G12" s="180">
         <v>60</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="180">
         <v>60</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="180">
         <v>0</v>
       </c>
-      <c r="J12" s="145">
+      <c r="J12" s="181">
         <v>60</v>
       </c>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="L12" s="120">
+      <c r="L12" s="182">
         <v>43834</v>
       </c>
-      <c r="M12" s="120">
+      <c r="M12" s="182">
         <v>43834</v>
       </c>
-      <c r="N12" s="124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="121">
+      <c r="N12" s="183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="24" customHeight="1">
+      <c r="A13" s="178">
         <v>115</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="184">
         <v>11</v>
       </c>
-      <c r="C13" s="133">
+      <c r="C13" s="184">
         <v>5</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="185">
         <v>2940</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="185">
         <v>0</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="185">
         <v>2940</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="185">
         <v>2940</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="185">
         <v>0</v>
       </c>
-      <c r="J13" s="146">
+      <c r="J13" s="186">
         <v>2940</v>
       </c>
-      <c r="K13" s="133" t="s">
+      <c r="K13" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="135">
+      <c r="L13" s="187">
         <v>43834</v>
       </c>
-      <c r="M13" s="135">
+      <c r="M13" s="187">
         <v>43834</v>
       </c>
-      <c r="N13" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="121">
+      <c r="N13" s="188" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24" customHeight="1">
+      <c r="A14" s="178">
         <v>119</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="179">
         <v>12</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="179">
         <v>6</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="179" t="s">
         <v>308</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="180">
         <v>0</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="180">
         <v>2000</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="180">
         <v>940</v>
       </c>
-      <c r="H14" s="123">
+      <c r="H14" s="180">
         <v>0</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="180">
         <v>2000</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="181">
         <v>940</v>
       </c>
-      <c r="K14" s="118" t="s">
+      <c r="K14" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="120">
+      <c r="L14" s="182">
         <v>43834</v>
       </c>
-      <c r="M14" s="120">
+      <c r="M14" s="182">
         <v>43834</v>
       </c>
-      <c r="N14" s="124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="121">
+      <c r="N14" s="183" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="24" customHeight="1">
+      <c r="A15" s="190">
         <v>120</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="191">
         <v>13</v>
       </c>
-      <c r="C15" s="133">
+      <c r="C15" s="191">
         <v>6</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="191" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="134">
+      <c r="E15" s="192">
         <v>2000</v>
       </c>
-      <c r="F15" s="134">
+      <c r="F15" s="192">
         <v>0</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="192">
         <v>7000</v>
       </c>
-      <c r="H15" s="134">
+      <c r="H15" s="192">
         <v>2000</v>
       </c>
-      <c r="I15" s="134">
+      <c r="I15" s="192">
         <v>0</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="193">
         <v>7000</v>
       </c>
-      <c r="K15" s="133" t="s">
+      <c r="K15" s="191" t="s">
         <v>214</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="189">
         <v>43834</v>
       </c>
-      <c r="M15" s="149">
+      <c r="M15" s="189">
         <v>43834</v>
       </c>
-      <c r="N15" s="136" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="35">
+      <c r="N15" s="194" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24" customHeight="1">
+      <c r="A16" s="195">
         <v>137</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="196">
         <v>14</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="196">
         <v>7</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="196" t="s">
         <v>321</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="197">
         <v>0</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="197">
         <v>1000</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="197">
         <v>72800</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="197">
         <v>0</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="197">
         <v>1000</v>
       </c>
-      <c r="J16" s="147">
+      <c r="J16" s="198">
         <v>72800</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="L16" s="139">
+      <c r="L16" s="199">
         <v>43836</v>
       </c>
-      <c r="M16" s="139">
+      <c r="M16" s="199">
         <v>43836</v>
       </c>
-      <c r="N16" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="35">
+      <c r="N16" s="200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" customHeight="1">
+      <c r="A17" s="195">
         <v>138</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="196">
         <v>15</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="196">
         <v>7</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="196" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="197">
         <v>1000</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="197">
         <v>0</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="197">
         <v>2200</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="197">
         <v>1000</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="197">
         <v>0</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="198">
         <v>2200</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="L17" s="139">
+      <c r="L17" s="199">
         <v>43836</v>
       </c>
-      <c r="M17" s="139">
+      <c r="M17" s="199">
         <v>43836</v>
       </c>
-      <c r="N17" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="35">
+      <c r="N17" s="200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" customHeight="1">
+      <c r="A18" s="195">
         <v>141</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="196">
         <v>16</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="196">
         <v>8</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="196" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="197">
         <v>0</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="197">
         <v>7320000</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="197">
         <v>-7320000</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="197">
         <v>0</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="197">
         <v>6000</v>
       </c>
-      <c r="J18" s="147">
+      <c r="J18" s="198">
         <v>-9000</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="L18" s="139">
+      <c r="L18" s="199">
         <v>43836</v>
       </c>
-      <c r="M18" s="139">
+      <c r="M18" s="199">
         <v>43836</v>
       </c>
-      <c r="N18" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="35">
+      <c r="N18" s="200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24" customHeight="1">
+      <c r="A19" s="195">
         <v>142</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="201">
         <v>17</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="201">
         <v>8</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="201" t="s">
         <v>473</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="202">
         <v>7320000</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="202">
         <v>0</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="202">
         <v>7320000</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="202">
         <v>6000</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="202">
         <v>0</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="202">
         <v>6000</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="201" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="148">
+      <c r="L19" s="203">
         <v>43836</v>
       </c>
-      <c r="M19" s="148">
+      <c r="M19" s="203">
         <v>43836</v>
       </c>
-      <c r="N19" s="44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="35">
+      <c r="N19" s="204" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" customHeight="1">
+      <c r="A20" s="195">
         <v>146</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="196">
         <v>18</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="196">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="196" t="s">
         <v>473</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="197">
         <v>0</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="197">
         <v>7320000</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="197">
         <v>0</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="197">
         <v>0</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="197">
         <v>6000</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="197">
         <v>0</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="139">
+      <c r="L20" s="199">
         <v>43836</v>
       </c>
-      <c r="M20" s="139">
+      <c r="M20" s="199">
         <v>43836</v>
       </c>
-      <c r="N20" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="35">
+      <c r="N20" s="200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" customHeight="1">
+      <c r="A21" s="195">
         <v>147</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="196">
         <v>19</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="196">
         <v>9</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="196" t="s">
         <v>347</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="197">
         <v>7320000</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="197">
         <v>0</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="197">
         <v>7320000</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="197">
         <v>6000</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="197">
         <v>0</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="197">
         <v>13000</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="139">
+      <c r="L21" s="199">
         <v>43836</v>
       </c>
-      <c r="M21" s="139">
+      <c r="M21" s="199">
         <v>43836</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="200" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="8" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7252,132 +7403,132 @@
       <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>90</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="109">
         <v>1</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="109">
         <v>2</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>95</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="109">
         <v>1</v>
       </c>
-      <c r="D4" s="118">
+      <c r="D4" s="109">
         <v>3</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="G4" s="124" t="s">
+      <c r="G4" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>111</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="109">
         <v>2</v>
       </c>
-      <c r="D5" s="118">
+      <c r="D5" s="109">
         <v>4</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="G5" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="121">
+      <c r="A6" s="112">
         <v>116</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="109">
         <v>2</v>
       </c>
-      <c r="D6" s="118">
+      <c r="D6" s="109">
         <v>5</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="G6" s="124" t="s">
+      <c r="G6" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="115" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="121">
+      <c r="A7" s="112">
         <v>121</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="109">
         <v>5</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="109">
         <v>2</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="109">
         <v>6</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="130" t="s">
         <v>422</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="130" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="124" t="s">
+      <c r="H7" s="115" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7397,10 +7548,10 @@
       <c r="E8" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="131" t="s">
         <v>485</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="131" t="s">
         <v>485</v>
       </c>
       <c r="H8" s="36" t="s">
@@ -7423,10 +7574,10 @@
       <c r="E9" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="131" t="s">
         <v>485</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="131" t="s">
         <v>485</v>
       </c>
       <c r="H9" s="36" t="s">
@@ -7449,10 +7600,10 @@
       <c r="E10" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="144" t="s">
+      <c r="F10" s="131" t="s">
         <v>485</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="131" t="s">
         <v>485</v>
       </c>
       <c r="H10" s="36" t="s">
@@ -7495,10 +7646,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="137"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="11">
@@ -7526,33 +7677,33 @@
       <c r="H2" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="45"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="37"/>
       <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>102</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>23</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="120">
+      <c r="G3" s="111">
         <v>43834</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="115" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7621,12 +7772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7655,7 +7806,7 @@
       <c r="H2" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="125" t="s">
         <v>357</v>
       </c>
       <c r="J2" s="37" t="s">
@@ -7672,41 +7823,41 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>74</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>15</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="109">
         <v>101</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="109" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="115" t="s">
         <v>364</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="115" t="s">
         <v>365</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="115" t="s">
         <v>366</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="109" t="s">
         <v>368</v>
       </c>
-      <c r="M3" s="118" t="s">
+      <c r="M3" s="109" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7740,10 +7891,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="11">
@@ -7800,10 +7951,10 @@
       <c r="G3" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="139">
+      <c r="H3" s="126">
         <v>43836</v>
       </c>
-      <c r="I3" s="139">
+      <c r="I3" s="126">
         <v>43836</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -7836,619 +7987,619 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="49" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="47" customWidth="1"/>
-    <col min="8" max="1014" width="11.5" style="47"/>
-    <col min="1015" max="1025" width="11.5" style="50"/>
+    <col min="1" max="1" width="5.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="47" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="45" customWidth="1"/>
+    <col min="8" max="1014" width="11.5" style="45"/>
+    <col min="1015" max="1025" width="11.5" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="51"/>
-    </row>
-    <row r="2" spans="1:1024" s="51" customFormat="1">
-      <c r="A2" s="46" t="s">
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:1024" s="49" customFormat="1">
+      <c r="A2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="AMA2" s="50"/>
-      <c r="AMB2" s="50"/>
-      <c r="AMC2" s="50"/>
-      <c r="AMD2" s="50"/>
-      <c r="AME2" s="50"/>
-      <c r="AMF2" s="50"/>
-      <c r="AMG2" s="50"/>
-      <c r="AMH2" s="50"/>
-      <c r="AMI2" s="50"/>
-      <c r="AMJ2" s="50"/>
+      <c r="AMA2" s="48"/>
+      <c r="AMB2" s="48"/>
+      <c r="AMC2" s="48"/>
+      <c r="AMD2" s="48"/>
+      <c r="AME2" s="48"/>
+      <c r="AMF2" s="48"/>
+      <c r="AMG2" s="48"/>
+      <c r="AMH2" s="48"/>
+      <c r="AMI2" s="48"/>
+      <c r="AMJ2" s="48"/>
     </row>
     <row r="3" spans="1:1024">
-      <c r="A3" s="46">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="52">
         <v>10100010001</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="54">
         <v>43831</v>
       </c>
     </row>
     <row r="4" spans="1:1024">
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <v>43831</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="P4" s="51"/>
+      <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="B5" s="54">
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="54">
         <v>43831</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="56" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:1024">
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
         <v>385</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="54">
         <v>43831</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="58"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="53" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="54">
         <v>43831</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:1024" ht="48">
-      <c r="B8" s="47">
+      <c r="B8" s="45">
         <v>6</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="54">
         <v>43831</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="56" t="s">
         <v>392</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="56" t="s">
         <v>392</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56" t="s">
         <v>392</v>
       </c>
-      <c r="O8" s="58"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:1024">
-      <c r="B9" s="47">
+      <c r="B9" s="45">
         <v>7</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>374</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="54">
         <v>43831</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:1024" ht="24">
-      <c r="B10" s="47">
+      <c r="B10" s="45">
         <v>8</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="54">
         <v>43831</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58" t="s">
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="O10" s="58"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:1024" ht="48">
-      <c r="B11" s="47">
+      <c r="B11" s="45">
         <v>9</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="60" t="b">
+      <c r="D11" s="58" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="54">
         <v>43831</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58" t="s">
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="O11" s="58"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:1024">
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <v>10</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="52">
         <v>14</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="53"/>
+      <c r="F12" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="54">
         <v>43831</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58" t="s">
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="O12" s="58"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:1024">
-      <c r="B13" s="47">
+      <c r="B13" s="45">
         <v>11</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="52">
         <v>15</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="47" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="54">
         <v>43831</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58" t="s">
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="O13" s="58"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:1024">
-      <c r="B14" s="47">
+      <c r="B14" s="45">
         <v>12</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="52">
         <v>16</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="54">
         <v>43832</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:1024">
-      <c r="B15" s="47">
+      <c r="B15" s="45">
         <v>13</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46">
         <v>3</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="47" t="s">
         <v>408</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="54">
         <v>43833</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:1024">
-      <c r="B16" s="47">
+      <c r="B16" s="45">
         <v>14</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
         <v>3</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="54">
         <v>43834</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <v>15</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="46">
         <v>3</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="54">
         <v>43835</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="47">
+      <c r="B18" s="45">
         <v>16</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="54">
         <v>43836</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="24">
-      <c r="B19" s="47">
+      <c r="B19" s="45">
         <v>17</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="54">
         <v>43837</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="24">
-      <c r="B20" s="47">
+      <c r="B20" s="45">
         <v>18</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>454</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="54">
         <v>43838</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="54">
         <v>43839</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="54">
         <v>43840</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="54">
         <v>43841</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="54">
         <v>43842</v>
       </c>
     </row>
@@ -8482,10 +8633,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="3" spans="1:3" ht="14">
       <c r="A3" s="13" t="s">
@@ -8493,212 +8644,212 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="116">
+      <c r="A5" s="157">
         <v>27</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="116"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="88">
+      <c r="C6" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="116"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="116"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="88">
+      <c r="C8" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="116"/>
-      <c r="B9" s="90" t="s">
+      <c r="A9" s="157"/>
+      <c r="B9" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="116">
+      <c r="A11" s="157">
         <v>97</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="116"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="116"/>
-      <c r="B13" s="87" t="s">
+      <c r="A13" s="157"/>
+      <c r="B13" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="116"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="157"/>
+      <c r="B14" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="90" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="116">
+      <c r="A17" s="157">
         <v>122</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="82">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="87" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="85">
         <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="87" t="s">
+      <c r="A19" s="157"/>
+      <c r="B19" s="83" t="s">
         <v>439</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="84">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="116"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="157"/>
+      <c r="B20" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="85">
         <f>C17-C18-C19</f>
         <v>1740</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="116"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="157"/>
+      <c r="B21" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" thickBot="1">
-      <c r="A22" s="116"/>
-      <c r="B22" s="90" t="s">
+      <c r="A22" s="157"/>
+      <c r="B22" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="88">
         <f>C20-C21</f>
         <v>1740</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" thickTop="1"/>
     <row r="24" spans="1:3">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="158" t="s">
         <v>491</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="132" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="152">
+      <c r="C24" s="133">
         <v>9000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="153">
+      <c r="C25" s="134">
         <v>2200</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="135">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="153">
+      <c r="C27" s="134">
         <f>C24-C25-C26</f>
         <v>6740</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="154">
+      <c r="C28" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" thickBot="1">
-      <c r="A29" s="150"/>
-      <c r="B29" s="155" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="156">
+      <c r="C29" s="137">
         <f>C27-C28</f>
         <v>6740</v>
       </c>
@@ -8728,7 +8879,7 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -8747,10 +8898,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -8758,315 +8909,320 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93">
+      <c r="A5" s="163">
         <v>11</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="164"/>
+      <c r="D5" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96" t="s">
+      <c r="E5" s="165"/>
+      <c r="F5" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="96"/>
+      <c r="G5" s="166"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93"/>
-      <c r="B6" s="97" t="s">
+      <c r="A6" s="163"/>
+      <c r="B6" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="90">
         <v>10000</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="91">
         <v>10000</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="98"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="88">
+      <c r="A8" s="163"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="84">
         <f>SUM(C6:C7)</f>
         <v>10000</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="104">
+      <c r="D8" s="86"/>
+      <c r="E8" s="96">
         <f>SUM(E6:E7)</f>
         <v>10000</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="88"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="84"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93">
+      <c r="A11" s="163">
         <v>99</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95" t="s">
+      <c r="C11" s="164"/>
+      <c r="D11" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96" t="s">
+      <c r="E11" s="165"/>
+      <c r="F11" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="G11" s="96"/>
+      <c r="G11" s="166"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="93"/>
-      <c r="B12" s="97" t="s">
+      <c r="A12" s="163"/>
+      <c r="B12" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="90">
         <v>5000</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="91">
         <v>10000</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="90">
         <v>70000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="93"/>
-      <c r="B13" s="100" t="s">
+      <c r="A13" s="163"/>
+      <c r="B13" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="93">
         <v>75000</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="93"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="88">
+      <c r="A14" s="163"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="84">
         <f>SUM(C12:C13)</f>
         <v>80000</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="104">
+      <c r="D14" s="86"/>
+      <c r="E14" s="96">
         <f>SUM(E12:E13)+SUM(G12:G13)</f>
         <v>80000</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="88"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="93">
+      <c r="A17" s="163">
         <v>124</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95" t="s">
+      <c r="C17" s="164"/>
+      <c r="D17" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96" t="s">
+      <c r="E17" s="165"/>
+      <c r="F17" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="96"/>
+      <c r="G17" s="166"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="93"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="163"/>
+      <c r="B18" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="90">
         <v>7000</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="91">
         <v>10000</v>
       </c>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="90">
         <v>70000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="93"/>
-      <c r="B19" s="97" t="s">
+      <c r="A19" s="163"/>
+      <c r="B19" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="90">
         <v>73800</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="89" t="s">
         <v>441</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="97">
         <v>1740</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="98"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="93"/>
-      <c r="B20" s="97" t="s">
+      <c r="A20" s="163"/>
+      <c r="B20" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="90">
         <v>940</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="93"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="101"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="93"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="88">
+      <c r="A22" s="163"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="84">
         <f>SUM(C18:C21)</f>
         <v>81740</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="104">
+      <c r="D22" s="86"/>
+      <c r="E22" s="96">
         <f>SUM(E18:E19)+SUM(G18:G19)</f>
         <v>81740</v>
       </c>
-      <c r="F22" s="90"/>
-      <c r="G22" s="88"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="163">
+      <c r="A25" s="159">
         <v>151</v>
       </c>
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165" t="s">
+      <c r="C25" s="160"/>
+      <c r="D25" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166" t="s">
+      <c r="E25" s="161"/>
+      <c r="F25" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="166"/>
+      <c r="G25" s="162"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="163"/>
-      <c r="B26" s="167" t="s">
+      <c r="A26" s="159"/>
+      <c r="B26" s="144" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="168">
+      <c r="C26" s="145">
         <v>13000</v>
       </c>
-      <c r="D26" s="167" t="s">
+      <c r="D26" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="169">
+      <c r="E26" s="146">
         <v>10000</v>
       </c>
-      <c r="F26" s="170" t="s">
+      <c r="F26" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="168">
+      <c r="G26" s="145">
         <v>70000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="163"/>
-      <c r="B27" s="167" t="s">
+      <c r="A27" s="159"/>
+      <c r="B27" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="168">
+      <c r="C27" s="145">
         <v>72800</v>
       </c>
-      <c r="D27" s="167" t="s">
+      <c r="D27" s="144" t="s">
         <v>441</v>
       </c>
-      <c r="E27" s="171">
+      <c r="E27" s="148">
         <v>6740</v>
       </c>
-      <c r="F27" s="170"/>
-      <c r="G27" s="168"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="145"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="163"/>
-      <c r="B28" s="167" t="s">
+      <c r="A28" s="159"/>
+      <c r="B28" s="144" t="s">
         <v>440</v>
       </c>
-      <c r="C28" s="168">
+      <c r="C28" s="145">
         <v>940</v>
       </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="168"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="145"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="163"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="177"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="163"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="154">
+      <c r="A30" s="159"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="135">
         <f>SUM(C26:C29)</f>
         <v>86740</v>
       </c>
-      <c r="D30" s="155"/>
-      <c r="E30" s="178">
+      <c r="D30" s="136"/>
+      <c r="E30" s="155">
         <f>SUM(E26:E27)+SUM(G26:G27)</f>
         <v>86740</v>
       </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="154"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
@@ -9079,11 +9235,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9121,220 +9272,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="156" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="156"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="116">
+      <c r="A3" s="157">
         <v>28</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="109">
+      <c r="C3" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="157"/>
+      <c r="B5" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="102"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="103">
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="157"/>
+      <c r="B7" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="105">
         <f>SUM(C3:C6)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="117"/>
+      <c r="A8" s="108"/>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="116">
+      <c r="A9" s="157">
         <v>98</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="101"/>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="157"/>
+      <c r="B10" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="102">
         <v>-5000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="115" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="102"/>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="116"/>
-      <c r="B12" s="115" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="103"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="157"/>
+      <c r="B13" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="103">
         <f>SUM(C10:C12)</f>
         <v>-5000</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" customHeight="1"/>
     <row r="15" spans="1:4">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="157" t="s">
         <v>449</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="109"/>
+      <c r="C15" s="101"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="116"/>
-      <c r="B16" s="87" t="s">
+      <c r="A16" s="157"/>
+      <c r="B16" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="102">
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="157"/>
+      <c r="B17" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="102">
         <v>-5000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="115" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="110"/>
+      <c r="C18" s="102"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="115" t="s">
+      <c r="A19" s="157"/>
+      <c r="B19" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="110"/>
+      <c r="C19" s="102"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="116"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="157"/>
+      <c r="B20" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="103">
         <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="116"/>
-      <c r="B21" s="112" t="s">
+      <c r="A21" s="157"/>
+      <c r="B21" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="111">
+      <c r="C21" s="103">
         <f>SUM(C15:C20)</f>
         <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="158" t="s">
         <v>492</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="158"/>
+      <c r="C23" s="139"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="150"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="C24" s="159">
+      <c r="C24" s="140">
         <v>8000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="150"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="159">
+      <c r="C25" s="140">
         <v>-5000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="150"/>
-      <c r="B26" s="160" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="159"/>
+      <c r="C26" s="140"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="150"/>
-      <c r="B27" s="160" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="159"/>
+      <c r="C27" s="140"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="150"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="161">
+      <c r="C28" s="142">
         <v>10000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="150"/>
-      <c r="B29" s="162" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="161">
+      <c r="C29" s="142">
         <f>SUM(C23:C28)</f>
         <v>13000</v>
       </c>
@@ -9385,10 +9536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="11">
       <c r="A2" s="19" t="s">
@@ -10446,46 +10597,46 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="118">
+      <c r="A25" s="109">
         <v>101</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="109">
         <v>23</v>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="109">
         <v>1</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="F25" s="118" t="s">
+      <c r="F25" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="G25" s="118" t="s">
+      <c r="G25" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="118">
+      <c r="H25" s="109">
         <v>10300001</v>
       </c>
-      <c r="I25" s="118" t="s">
+      <c r="I25" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="J25" s="119" t="b">
+      <c r="J25" s="110" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="118" t="s">
+      <c r="K25" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="120">
+      <c r="L25" s="111">
         <v>43834</v>
       </c>
-      <c r="M25" s="120">
+      <c r="M25" s="111">
         <v>43834</v>
       </c>
-      <c r="N25" s="118" t="s">
+      <c r="N25" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10571,10 +10722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="167" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="71"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" ht="11">
@@ -10613,852 +10764,852 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="118">
+      <c r="A3" s="109">
         <v>31</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="118" t="s">
+      <c r="C3" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="121" t="b">
+      <c r="E3" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="120">
+      <c r="I3" s="111">
         <v>43832</v>
       </c>
-      <c r="J3" s="120">
+      <c r="J3" s="111">
         <v>43832</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="118">
+      <c r="A4" s="109">
         <v>32</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="E4" s="121" t="b">
+      <c r="E4" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118" t="s">
+      <c r="G4" s="109"/>
+      <c r="H4" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="111">
         <v>43832</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="111">
         <v>43832</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="118">
+      <c r="A5" s="109">
         <v>33</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="121" t="b">
+      <c r="E5" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="120">
+      <c r="I5" s="111">
         <v>43832</v>
       </c>
-      <c r="J5" s="120">
+      <c r="J5" s="111">
         <v>43832</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="118">
+      <c r="A6" s="109">
         <v>34</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="109" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="121" t="b">
+      <c r="E6" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118" t="s">
+      <c r="G6" s="109"/>
+      <c r="H6" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="111">
         <v>43832</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="111">
         <v>43832</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="118">
+      <c r="A7" s="109">
         <v>35</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="109">
         <v>5</v>
       </c>
-      <c r="C7" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="118" t="s">
+      <c r="C7" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="121" t="b">
+      <c r="E7" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118" t="s">
+      <c r="G7" s="109"/>
+      <c r="H7" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I7" s="120">
+      <c r="I7" s="111">
         <v>43832</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="111">
         <v>43832</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="118">
+      <c r="A8" s="109">
         <v>36</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="109">
         <v>6</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="121" t="b">
+      <c r="E8" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="120">
+      <c r="I8" s="111">
         <v>43832</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="111">
         <v>43832</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="118">
+      <c r="A9" s="109">
         <v>37</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="109">
         <v>7</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="121" t="b">
+      <c r="E9" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="120">
+      <c r="I9" s="111">
         <v>43832</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="111">
         <v>43832</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="118">
+      <c r="A10" s="109">
         <v>38</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="109">
         <v>8</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="E10" s="121" t="b">
+      <c r="E10" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118" t="s">
+      <c r="G10" s="109"/>
+      <c r="H10" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I10" s="120">
+      <c r="I10" s="111">
         <v>43832</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="111">
         <v>43832</v>
       </c>
-      <c r="K10" s="118" t="s">
+      <c r="K10" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="118">
+      <c r="A11" s="109">
         <v>39</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="109">
         <v>9</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="109" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="121" t="b">
+      <c r="E11" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118" t="s">
+      <c r="G11" s="109"/>
+      <c r="H11" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="111">
         <v>43832</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="111">
         <v>43832</v>
       </c>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="118">
+      <c r="A12" s="109">
         <v>40</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="109">
         <v>10</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="121" t="b">
+      <c r="E12" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118" t="s">
+      <c r="G12" s="109"/>
+      <c r="H12" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I12" s="120">
+      <c r="I12" s="111">
         <v>43832</v>
       </c>
-      <c r="J12" s="120">
+      <c r="J12" s="111">
         <v>43832</v>
       </c>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="118">
+      <c r="A13" s="109">
         <v>41</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="109">
         <v>11</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="121" t="b">
+      <c r="E13" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118" t="s">
+      <c r="G13" s="109"/>
+      <c r="H13" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I13" s="120">
+      <c r="I13" s="111">
         <v>43832</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="111">
         <v>43832</v>
       </c>
-      <c r="K13" s="118" t="s">
+      <c r="K13" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="118">
+      <c r="A14" s="109">
         <v>42</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="109">
         <v>12</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="121" t="b">
+      <c r="E14" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118" t="s">
+      <c r="G14" s="109"/>
+      <c r="H14" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I14" s="120">
+      <c r="I14" s="111">
         <v>43832</v>
       </c>
-      <c r="J14" s="120">
+      <c r="J14" s="111">
         <v>43832</v>
       </c>
-      <c r="K14" s="118" t="s">
+      <c r="K14" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="118">
+      <c r="A15" s="109">
         <v>43</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="109">
         <v>13</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="121" t="b">
+      <c r="E15" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118" t="s">
+      <c r="G15" s="109"/>
+      <c r="H15" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="120">
+      <c r="I15" s="111">
         <v>43832</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="111">
         <v>43832</v>
       </c>
-      <c r="K15" s="118" t="s">
+      <c r="K15" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="118">
+      <c r="A16" s="109">
         <v>44</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="109">
         <v>14</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="121" t="b">
+      <c r="E16" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118" t="s">
+      <c r="G16" s="109"/>
+      <c r="H16" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I16" s="120">
+      <c r="I16" s="111">
         <v>43832</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="111">
         <v>43832</v>
       </c>
-      <c r="K16" s="118" t="s">
+      <c r="K16" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="118">
+      <c r="A17" s="109">
         <v>45</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="109">
         <v>15</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="109" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="121" t="b">
+      <c r="E17" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118" t="s">
+      <c r="G17" s="109"/>
+      <c r="H17" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I17" s="120">
+      <c r="I17" s="111">
         <v>43832</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="111">
         <v>43832</v>
       </c>
-      <c r="K17" s="118" t="s">
+      <c r="K17" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="118">
+      <c r="A18" s="109">
         <v>46</v>
       </c>
-      <c r="B18" s="118">
+      <c r="B18" s="109">
         <v>16</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="121" t="b">
+      <c r="E18" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118" t="s">
+      <c r="G18" s="109"/>
+      <c r="H18" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I18" s="120">
+      <c r="I18" s="111">
         <v>43832</v>
       </c>
-      <c r="J18" s="120">
+      <c r="J18" s="111">
         <v>43832</v>
       </c>
-      <c r="K18" s="118" t="s">
+      <c r="K18" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="118">
+      <c r="A19" s="109">
         <v>47</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="109">
         <v>17</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="109" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="121" t="b">
+      <c r="E19" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118" t="s">
+      <c r="G19" s="109"/>
+      <c r="H19" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="120">
+      <c r="I19" s="111">
         <v>43832</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="111">
         <v>43832</v>
       </c>
-      <c r="K19" s="118" t="s">
+      <c r="K19" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="118">
+      <c r="A20" s="109">
         <v>48</v>
       </c>
-      <c r="B20" s="118">
+      <c r="B20" s="109">
         <v>18</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="121" t="b">
+      <c r="E20" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118" t="s">
+      <c r="G20" s="109"/>
+      <c r="H20" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I20" s="120">
+      <c r="I20" s="111">
         <v>43832</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="111">
         <v>43832</v>
       </c>
-      <c r="K20" s="118" t="s">
+      <c r="K20" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="118">
+      <c r="A21" s="109">
         <v>49</v>
       </c>
-      <c r="B21" s="118">
+      <c r="B21" s="109">
         <v>19</v>
       </c>
-      <c r="C21" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="118" t="s">
+      <c r="C21" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="121" t="b">
+      <c r="E21" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118" t="s">
+      <c r="G21" s="109"/>
+      <c r="H21" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="120">
+      <c r="I21" s="111">
         <v>43832</v>
       </c>
-      <c r="J21" s="120">
+      <c r="J21" s="111">
         <v>43832</v>
       </c>
-      <c r="K21" s="118" t="s">
+      <c r="K21" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="118">
+      <c r="A22" s="109">
         <v>50</v>
       </c>
-      <c r="B22" s="118">
+      <c r="B22" s="109">
         <v>20</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="121" t="b">
+      <c r="E22" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F22" s="121" t="s">
+      <c r="F22" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118" t="s">
+      <c r="G22" s="109"/>
+      <c r="H22" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I22" s="120">
+      <c r="I22" s="111">
         <v>43832</v>
       </c>
-      <c r="J22" s="120">
+      <c r="J22" s="111">
         <v>43832</v>
       </c>
-      <c r="K22" s="118" t="s">
+      <c r="K22" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="118">
+      <c r="A23" s="109">
         <v>51</v>
       </c>
-      <c r="B23" s="118">
+      <c r="B23" s="109">
         <v>21</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="121" t="b">
+      <c r="E23" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118" t="s">
+      <c r="G23" s="109"/>
+      <c r="H23" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I23" s="120">
+      <c r="I23" s="111">
         <v>43832</v>
       </c>
-      <c r="J23" s="120">
+      <c r="J23" s="111">
         <v>43832</v>
       </c>
-      <c r="K23" s="118" t="s">
+      <c r="K23" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="118">
+      <c r="A24" s="109">
         <v>52</v>
       </c>
-      <c r="B24" s="118">
+      <c r="B24" s="109">
         <v>22</v>
       </c>
-      <c r="C24" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="118" t="s">
+      <c r="C24" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="E24" s="121" t="b">
+      <c r="E24" s="112" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F24" s="121" t="s">
+      <c r="F24" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118" t="s">
+      <c r="G24" s="109"/>
+      <c r="H24" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I24" s="120">
+      <c r="I24" s="111">
         <v>43832</v>
       </c>
-      <c r="J24" s="120">
+      <c r="J24" s="111">
         <v>43832</v>
       </c>
-      <c r="K24" s="118" t="s">
+      <c r="K24" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="118">
+      <c r="A25" s="109">
         <v>53</v>
       </c>
-      <c r="B25" s="118">
+      <c r="B25" s="109">
         <v>23</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="121" t="b">
+      <c r="E25" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118" t="s">
+      <c r="G25" s="109"/>
+      <c r="H25" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I25" s="120">
+      <c r="I25" s="111">
         <v>43832</v>
       </c>
-      <c r="J25" s="120">
+      <c r="J25" s="111">
         <v>43832</v>
       </c>
-      <c r="K25" s="118" t="s">
+      <c r="K25" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="118">
+      <c r="A26" s="109">
         <v>54</v>
       </c>
-      <c r="B26" s="118">
+      <c r="B26" s="109">
         <v>24</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="121" t="b">
+      <c r="E26" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F26" s="121" t="s">
+      <c r="F26" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118" t="s">
+      <c r="G26" s="109"/>
+      <c r="H26" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I26" s="120">
+      <c r="I26" s="111">
         <v>43832</v>
       </c>
-      <c r="J26" s="120">
+      <c r="J26" s="111">
         <v>43832</v>
       </c>
-      <c r="K26" s="118" t="s">
+      <c r="K26" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="118">
+      <c r="A27" s="109">
         <v>55</v>
       </c>
-      <c r="B27" s="118">
+      <c r="B27" s="109">
         <v>25</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="E27" s="121" t="b">
+      <c r="E27" s="112" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118" t="s">
+      <c r="G27" s="109"/>
+      <c r="H27" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="I27" s="120">
+      <c r="I27" s="111">
         <v>43832</v>
       </c>
-      <c r="J27" s="120">
+      <c r="J27" s="111">
         <v>43832</v>
       </c>
-      <c r="K27" s="118" t="s">
+      <c r="K27" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -11555,800 +11706,800 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="118">
+      <c r="A3" s="109">
         <v>56</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="121">
+      <c r="D3" s="112">
         <v>115</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="118" t="b">
+      <c r="F3" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G3" s="118" t="b">
+      <c r="G3" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="113">
         <v>250</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="120">
+      <c r="L3" s="111">
         <v>43832</v>
       </c>
-      <c r="M3" s="120">
+      <c r="M3" s="111">
         <v>43832</v>
       </c>
-      <c r="N3" s="118" t="s">
+      <c r="N3" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="118">
+      <c r="A4" s="109">
         <v>57</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="121">
+      <c r="D4" s="112">
         <v>116</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="118" t="b">
+      <c r="F4" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G4" s="118" t="b">
+      <c r="G4" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118" t="s">
+      <c r="H4" s="109"/>
+      <c r="I4" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="113">
         <v>350</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="120">
+      <c r="L4" s="111">
         <v>43832</v>
       </c>
-      <c r="M4" s="120">
+      <c r="M4" s="111">
         <v>43832</v>
       </c>
-      <c r="N4" s="118" t="s">
+      <c r="N4" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="118">
+      <c r="A5" s="109">
         <v>58</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="112">
         <v>117</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="109" t="s">
         <v>266</v>
       </c>
-      <c r="F5" s="118" t="b">
+      <c r="F5" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G5" s="118" t="b">
+      <c r="G5" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="113">
         <v>1000</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="120">
+      <c r="L5" s="111">
         <v>43832</v>
       </c>
-      <c r="M5" s="120">
+      <c r="M5" s="111">
         <v>43832</v>
       </c>
-      <c r="N5" s="118" t="s">
+      <c r="N5" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="118">
+      <c r="A6" s="109">
         <v>59</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="112">
         <v>231</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="109" t="s">
         <v>268</v>
       </c>
-      <c r="F6" s="118" t="b">
+      <c r="F6" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G6" s="118" t="b">
+      <c r="G6" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118" t="s">
+      <c r="H6" s="109"/>
+      <c r="I6" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="113">
         <v>120</v>
       </c>
-      <c r="K6" s="118" t="s">
+      <c r="K6" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="120">
+      <c r="L6" s="111">
         <v>43832</v>
       </c>
-      <c r="M6" s="120">
+      <c r="M6" s="111">
         <v>43832</v>
       </c>
-      <c r="N6" s="118" t="s">
+      <c r="N6" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="118">
+      <c r="A7" s="109">
         <v>60</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="109">
         <v>5</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="112">
         <v>232</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="118" t="b">
+      <c r="F7" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G7" s="118" t="b">
+      <c r="G7" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118" t="s">
+      <c r="H7" s="109"/>
+      <c r="I7" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J7" s="122">
-        <v>180</v>
-      </c>
-      <c r="K7" s="118" t="s">
+      <c r="J7" s="113">
+        <v>180</v>
+      </c>
+      <c r="K7" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="120">
+      <c r="L7" s="111">
         <v>43832</v>
       </c>
-      <c r="M7" s="120">
+      <c r="M7" s="111">
         <v>43832</v>
       </c>
-      <c r="N7" s="118" t="s">
+      <c r="N7" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="118">
+      <c r="A8" s="109">
         <v>61</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="109">
         <v>6</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="121">
+      <c r="D8" s="112">
         <v>233</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="109" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="118" t="b">
+      <c r="F8" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G8" s="118" t="b">
+      <c r="G8" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="109"/>
+      <c r="I8" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="122">
+      <c r="J8" s="113">
         <v>600</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K8" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="111">
         <v>43832</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M8" s="111">
         <v>43832</v>
       </c>
-      <c r="N8" s="118" t="s">
+      <c r="N8" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="118">
+      <c r="A9" s="109">
         <v>62</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="109">
         <v>7</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="112">
         <v>963</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="112" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="118" t="b">
+      <c r="F9" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G9" s="118" t="b">
+      <c r="G9" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118" t="s">
+      <c r="H9" s="109"/>
+      <c r="I9" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="113">
         <v>1400</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="111">
         <v>43832</v>
       </c>
-      <c r="M9" s="120">
+      <c r="M9" s="111">
         <v>43832</v>
       </c>
-      <c r="N9" s="118" t="s">
+      <c r="N9" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="118">
+      <c r="A10" s="109">
         <v>63</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="109">
         <v>8</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="109" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="121">
+      <c r="D10" s="112">
         <v>13231</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="112" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="118" t="b">
+      <c r="F10" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G10" s="118" t="b">
+      <c r="G10" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118" t="s">
+      <c r="H10" s="109"/>
+      <c r="I10" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="122">
+      <c r="J10" s="113">
         <v>2800</v>
       </c>
-      <c r="K10" s="118" t="s">
+      <c r="K10" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="111">
         <v>43832</v>
       </c>
-      <c r="M10" s="120">
+      <c r="M10" s="111">
         <v>43832</v>
       </c>
-      <c r="N10" s="118" t="s">
+      <c r="N10" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="118">
+      <c r="A11" s="109">
         <v>64</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="109">
         <v>9</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="121">
+      <c r="D11" s="112">
         <v>8742</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="112" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="118" t="b">
+      <c r="F11" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G11" s="118" t="b">
+      <c r="G11" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118" t="s">
+      <c r="H11" s="109"/>
+      <c r="I11" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="122">
+      <c r="J11" s="113">
         <v>450</v>
       </c>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L11" s="120">
+      <c r="L11" s="111">
         <v>43832</v>
       </c>
-      <c r="M11" s="120">
+      <c r="M11" s="111">
         <v>43832</v>
       </c>
-      <c r="N11" s="118" t="s">
+      <c r="N11" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="118">
+      <c r="A12" s="109">
         <v>65</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="109">
         <v>10</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="D12" s="121">
+      <c r="D12" s="112">
         <v>8743</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="112" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="118" t="b">
+      <c r="F12" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G12" s="118" t="b">
+      <c r="G12" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118" t="s">
+      <c r="H12" s="109"/>
+      <c r="I12" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="113">
         <v>450</v>
       </c>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L12" s="120">
+      <c r="L12" s="111">
         <v>43832</v>
       </c>
-      <c r="M12" s="120">
+      <c r="M12" s="111">
         <v>43832</v>
       </c>
-      <c r="N12" s="118" t="s">
+      <c r="N12" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="118">
+      <c r="A13" s="109">
         <v>66</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="109">
         <v>11</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="112">
         <v>8744</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="118" t="b">
+      <c r="F13" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G13" s="118" t="b">
+      <c r="G13" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="113">
         <v>450</v>
       </c>
-      <c r="K13" s="118" t="s">
+      <c r="K13" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="111">
         <v>43832</v>
       </c>
-      <c r="M13" s="120">
+      <c r="M13" s="111">
         <v>43832</v>
       </c>
-      <c r="N13" s="118" t="s">
+      <c r="N13" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="118">
+      <c r="A14" s="109">
         <v>67</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="109">
         <v>12</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="D14" s="121">
+      <c r="D14" s="112">
         <v>300</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="118" t="b">
+      <c r="F14" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G14" s="118" t="b">
+      <c r="G14" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="H14" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J14" s="122">
+      <c r="J14" s="113">
         <v>0</v>
       </c>
-      <c r="K14" s="118" t="s">
+      <c r="K14" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="120">
+      <c r="L14" s="111">
         <v>43832</v>
       </c>
-      <c r="M14" s="120">
+      <c r="M14" s="111">
         <v>43832</v>
       </c>
-      <c r="N14" s="118" t="s">
+      <c r="N14" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="118">
+      <c r="A15" s="109">
         <v>68</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="109">
         <v>13</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="121">
+      <c r="D15" s="112">
         <v>400</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="112" t="s">
         <v>281</v>
       </c>
-      <c r="F15" s="118" t="b">
+      <c r="F15" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G15" s="118" t="b">
+      <c r="G15" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="113">
         <v>80</v>
       </c>
-      <c r="K15" s="118" t="s">
+      <c r="K15" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L15" s="120">
+      <c r="L15" s="111">
         <v>43832</v>
       </c>
-      <c r="M15" s="120">
+      <c r="M15" s="111">
         <v>43832</v>
       </c>
-      <c r="N15" s="118" t="s">
+      <c r="N15" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="118">
+      <c r="A16" s="109">
         <v>69</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="109">
         <v>14</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="109" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="112">
         <v>500</v>
       </c>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="F16" s="118" t="b">
+      <c r="F16" s="109" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G16" s="118" t="b">
+      <c r="G16" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="I16" s="118" t="s">
+      <c r="I16" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="113">
         <v>320</v>
       </c>
-      <c r="K16" s="118" t="s">
+      <c r="K16" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L16" s="120">
+      <c r="L16" s="111">
         <v>43832</v>
       </c>
-      <c r="M16" s="120">
+      <c r="M16" s="111">
         <v>43832</v>
       </c>
-      <c r="N16" s="118" t="s">
+      <c r="N16" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="118">
+      <c r="A17" s="109">
         <v>70</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="109">
         <v>15</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="D17" s="121">
+      <c r="D17" s="112">
         <v>23</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="118" t="b">
+      <c r="F17" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G17" s="118" t="b">
+      <c r="G17" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118" t="s">
+      <c r="H17" s="109"/>
+      <c r="I17" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="113">
         <v>0</v>
       </c>
-      <c r="K17" s="118" t="s">
+      <c r="K17" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L17" s="120">
+      <c r="L17" s="111">
         <v>43832</v>
       </c>
-      <c r="M17" s="120">
+      <c r="M17" s="111">
         <v>43832</v>
       </c>
-      <c r="N17" s="118" t="s">
+      <c r="N17" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="118">
+      <c r="A18" s="109">
         <v>71</v>
       </c>
-      <c r="B18" s="118">
+      <c r="B18" s="109">
         <v>16</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="109" t="s">
         <v>284</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="112">
         <v>24</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="112" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="118" t="b">
+      <c r="F18" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G18" s="118" t="b">
+      <c r="G18" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118" t="s">
+      <c r="H18" s="109"/>
+      <c r="I18" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="122">
+      <c r="J18" s="113">
         <v>175</v>
       </c>
-      <c r="K18" s="118" t="s">
+      <c r="K18" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="L18" s="120">
+      <c r="L18" s="111">
         <v>43832</v>
       </c>
-      <c r="M18" s="120">
+      <c r="M18" s="111">
         <v>43832</v>
       </c>
-      <c r="N18" s="118" t="s">
+      <c r="N18" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="118">
+      <c r="A19" s="109">
         <v>72</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="109">
         <v>17</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="D19" s="121">
+      <c r="D19" s="112">
         <v>901</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="112" t="s">
         <v>288</v>
       </c>
-      <c r="F19" s="118" t="b">
+      <c r="F19" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G19" s="118" t="b">
+      <c r="G19" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118" t="s">
+      <c r="H19" s="109"/>
+      <c r="I19" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="113">
         <v>39</v>
       </c>
-      <c r="K19" s="118" t="s">
+      <c r="K19" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="L19" s="120">
+      <c r="L19" s="111">
         <v>43832</v>
       </c>
-      <c r="M19" s="120">
+      <c r="M19" s="111">
         <v>43832</v>
       </c>
-      <c r="N19" s="118" t="s">
+      <c r="N19" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="118">
+      <c r="A20" s="109">
         <v>73</v>
       </c>
-      <c r="B20" s="118">
+      <c r="B20" s="109">
         <v>18</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="121">
+      <c r="D20" s="112">
         <v>801</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="112" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="118" t="b">
+      <c r="F20" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G20" s="118" t="b">
+      <c r="G20" s="109" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118" t="s">
+      <c r="H20" s="109"/>
+      <c r="I20" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="113">
         <v>49</v>
       </c>
-      <c r="K20" s="118" t="s">
+      <c r="K20" s="109" t="s">
         <v>291</v>
       </c>
-      <c r="L20" s="120">
+      <c r="L20" s="111">
         <v>43832</v>
       </c>
-      <c r="M20" s="120">
+      <c r="M20" s="111">
         <v>43832</v>
       </c>
-      <c r="N20" s="118" t="s">
+      <c r="N20" s="109" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12460,232 +12611,232 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>76</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="121">
+      <c r="D3" s="112">
         <v>1</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="109" t="s">
         <v>305</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="112">
         <v>9990</v>
       </c>
-      <c r="H3" s="118">
+      <c r="H3" s="109">
         <v>1</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="109" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="109" t="s">
         <v>307</v>
       </c>
-      <c r="L3" s="123">
+      <c r="L3" s="114">
         <v>75000</v>
       </c>
-      <c r="M3" s="123">
+      <c r="M3" s="114">
         <v>75000</v>
       </c>
-      <c r="N3" s="124" t="b">
+      <c r="N3" s="115" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O3" s="124" t="b">
+      <c r="O3" s="115" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P3" s="118" t="s">
+      <c r="P3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="120">
+      <c r="Q3" s="111">
         <v>43833</v>
       </c>
-      <c r="R3" s="120">
+      <c r="R3" s="111">
         <v>43833</v>
       </c>
-      <c r="S3" s="118" t="s">
+      <c r="S3" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>103</v>
       </c>
-      <c r="B4" s="125">
+      <c r="B4" s="116">
         <v>2</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="126">
+      <c r="D4" s="117">
         <v>1</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="E4" s="117" t="s">
         <v>304</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="H4" s="125">
+      <c r="H4" s="116">
         <v>1</v>
       </c>
-      <c r="I4" s="125" t="s">
+      <c r="I4" s="116" t="s">
         <v>475</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125" t="s">
+      <c r="J4" s="116"/>
+      <c r="K4" s="116" t="s">
         <v>307</v>
       </c>
-      <c r="L4" s="127" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="129" t="b">
+      <c r="L4" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="120" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="129" t="b">
+      <c r="O4" s="120" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="P4" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="Q4" s="130">
+      <c r="Q4" s="121">
         <v>43834</v>
       </c>
-      <c r="R4" s="130">
+      <c r="R4" s="121">
         <v>43834</v>
       </c>
-      <c r="S4" s="125" t="s">
+      <c r="S4" s="116" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>106</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>2</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="121">
+      <c r="D5" s="112">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="112" t="s">
         <v>304</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="109" t="s">
         <v>307</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="114">
         <v>2940</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="115">
         <v>2940</v>
       </c>
-      <c r="N5" s="124" t="b">
+      <c r="N5" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="124" t="b">
+      <c r="O5" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q5" s="120">
+      <c r="Q5" s="111">
         <v>43834</v>
       </c>
-      <c r="R5" s="120">
+      <c r="R5" s="111">
         <v>43834</v>
       </c>
-      <c r="S5" s="118" t="s">
+      <c r="S5" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="61">
+      <c r="A6" s="59">
         <v>130</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="60">
         <v>3</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>472</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="63">
         <v>1220</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="H6" s="62">
+      <c r="H6" s="60">
         <v>2</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="60" t="s">
         <v>475</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60" t="s">
         <v>307</v>
       </c>
-      <c r="L6" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" s="63" t="b">
+      <c r="L6" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="63" t="b">
+      <c r="O6" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="62" t="s">
+      <c r="P6" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="Q6" s="64">
         <v>43836</v>
       </c>
-      <c r="R6" s="66">
+      <c r="R6" s="64">
         <v>43836</v>
       </c>
-      <c r="S6" s="62" t="s">
+      <c r="S6" s="60" t="s">
         <v>180</v>
       </c>
       <c r="T6" s="17">
@@ -12858,224 +13009,224 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="121">
+      <c r="A3" s="112">
         <v>77</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="109">
         <v>1</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="124">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="115">
         <v>400</v>
       </c>
-      <c r="K3" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="123">
+      <c r="K3" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="114">
         <v>100</v>
       </c>
-      <c r="N3" s="124">
+      <c r="N3" s="115">
         <v>0</v>
       </c>
-      <c r="O3" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="P3" s="118" t="s">
+      <c r="O3" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="120">
+      <c r="Q3" s="111">
         <v>43833</v>
       </c>
-      <c r="R3" s="120">
+      <c r="R3" s="111">
         <v>43833</v>
       </c>
-      <c r="S3" s="118" t="s">
+      <c r="S3" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="121">
+      <c r="A4" s="112">
         <v>80</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="109">
         <v>2</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="109">
         <v>1</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="124">
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="115">
         <v>600</v>
       </c>
-      <c r="K4" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="123">
+      <c r="K4" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="114">
         <v>50</v>
       </c>
-      <c r="N4" s="124">
+      <c r="N4" s="115">
         <v>0</v>
       </c>
-      <c r="O4" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="118" t="s">
+      <c r="O4" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q4" s="120">
+      <c r="Q4" s="111">
         <v>43833</v>
       </c>
-      <c r="R4" s="120">
+      <c r="R4" s="111">
         <v>43833</v>
       </c>
-      <c r="S4" s="118" t="s">
+      <c r="S4" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="121">
+      <c r="A5" s="112">
         <v>83</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="109">
         <v>3</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="109">
         <v>1</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="112" t="s">
         <v>305</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="109" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="118" t="s">
+      <c r="G5" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="124">
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="115">
         <v>100</v>
       </c>
-      <c r="K5" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="L5" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="123">
+      <c r="K5" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="114">
         <v>50</v>
       </c>
-      <c r="N5" s="124">
+      <c r="N5" s="115">
         <v>0</v>
       </c>
-      <c r="O5" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="118" t="s">
+      <c r="O5" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q5" s="120">
+      <c r="Q5" s="111">
         <v>43833</v>
       </c>
-      <c r="R5" s="120">
+      <c r="R5" s="111">
         <v>43833</v>
       </c>
-      <c r="S5" s="118" t="s">
+      <c r="S5" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="121">
+      <c r="A6" s="112">
         <v>104</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="109">
         <v>4</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="109">
         <v>2</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="109" t="s">
         <v>322</v>
       </c>
-      <c r="G6" s="118" t="s">
+      <c r="G6" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="109" t="s">
         <v>416</v>
       </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="124">
+      <c r="I6" s="109"/>
+      <c r="J6" s="115">
         <v>1000</v>
       </c>
-      <c r="K6" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="123">
+      <c r="K6" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="114">
         <v>3</v>
       </c>
-      <c r="N6" s="124">
+      <c r="N6" s="115">
         <v>20</v>
       </c>
-      <c r="O6" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="P6" s="118" t="s">
+      <c r="O6" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="P6" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="Q6" s="120">
+      <c r="Q6" s="111">
         <v>43834</v>
       </c>
-      <c r="R6" s="120">
+      <c r="R6" s="111">
         <v>43834</v>
       </c>
-      <c r="S6" s="118" t="s">
+      <c r="S6" s="109" t="s">
         <v>180</v>
       </c>
     </row>
